--- a/data/Body_Weight.xlsx
+++ b/data/Body_Weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F28101-0DC4-481F-AC38-60D5EA489CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6EDF8-ECD5-4BB5-8292-DCE13751E67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="359">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>King2013F0</t>
+  </si>
+  <si>
+    <t>Effect_Size_ID</t>
   </si>
 </sst>
 </file>
@@ -2082,151 +2085,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <border>
         <left style="thin">
@@ -16773,202 +16632,202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="74" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="73" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="70" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="69" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="68" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="67" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="66" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="65" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="62" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="60" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:D41">
-    <cfRule type="duplicateValues" dxfId="59" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:D41">
-    <cfRule type="duplicateValues" dxfId="58" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:D42">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:D42">
-    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="48" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="35" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B96 B103:B108">
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:B102">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16976,10 +16835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="S6" sqref="S6:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16997,7 +16856,7 @@
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17052,8 +16911,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -17104,8 +16966,11 @@
       <c r="Q2" t="s">
         <v>24</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -17144,7 +17009,7 @@
         <v>628.9</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="0">O3/SQRT(P3)</f>
+        <f t="shared" ref="N3:N12" si="0">O3/SQRT(P3)</f>
         <v>3.395352861284314</v>
       </c>
       <c r="O3">
@@ -17156,8 +17021,11 @@
       <c r="Q3" t="s">
         <v>28</v>
       </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -17211,8 +17079,11 @@
       <c r="R4" t="s">
         <v>35</v>
       </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -17263,8 +17134,11 @@
       <c r="Q5" t="s">
         <v>24</v>
       </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -17315,8 +17189,11 @@
       <c r="P6">
         <v>16</v>
       </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -17367,8 +17244,11 @@
       <c r="P7">
         <v>16</v>
       </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -17419,8 +17299,11 @@
       <c r="R8" t="s">
         <v>35</v>
       </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -17471,8 +17354,11 @@
       <c r="R9" t="s">
         <v>35</v>
       </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -17523,8 +17409,11 @@
       <c r="Q10" t="s">
         <v>24</v>
       </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -17575,8 +17464,11 @@
       <c r="Q11" t="s">
         <v>52</v>
       </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -17627,8 +17519,11 @@
       <c r="Q12" t="s">
         <v>24</v>
       </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -17683,8 +17578,11 @@
       <c r="R13" t="s">
         <v>35</v>
       </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -17739,8 +17637,11 @@
       <c r="Q14" t="s">
         <v>24</v>
       </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -17795,8 +17696,11 @@
       <c r="Q15" t="s">
         <v>24</v>
       </c>
+      <c r="S15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -17848,8 +17752,11 @@
       <c r="Q16" t="s">
         <v>288</v>
       </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>248</v>
       </c>
@@ -17898,6 +17805,9 @@
       </c>
       <c r="Q17" t="s">
         <v>34</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/Body_Weight.xlsx
+++ b/data/Body_Weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6EDF8-ECD5-4BB5-8292-DCE13751E67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93012D3F-790A-4C37-B0C3-1D394318CCF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="358">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -1121,9 +1121,6 @@
   </si>
   <si>
     <t>Park2018F0</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>King2013F0</t>
@@ -16838,13 +16835,14 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:S17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -16912,7 +16910,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -17267,9 +17265,6 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>356</v>
-      </c>
       <c r="I8">
         <v>33.053435</v>
       </c>
@@ -17473,7 +17468,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -17541,9 +17536,6 @@
       </c>
       <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>356</v>
       </c>
       <c r="I13">
         <v>24.9</v>

--- a/data/Body_Weight.xlsx
+++ b/data/Body_Weight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93012D3F-790A-4C37-B0C3-1D394318CCF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A613B2C-1B4C-4FD3-A517-B82CFD0DE142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16835,7 +16835,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16915,65 +16915,65 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>228.2</v>
+        <v>30.1</v>
       </c>
       <c r="J2">
         <f>K2*SQRT(L2)</f>
-        <v>22.452171387195495</v>
+        <v>45.5</v>
       </c>
       <c r="K2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>270.5</v>
+        <v>27.3</v>
       </c>
       <c r="N2">
         <f>O2/SQRT(P2)</f>
-        <v>1.2332882874656679</v>
+        <v>1.48</v>
       </c>
       <c r="O2">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -16982,111 +16982,108 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
       <c r="H3">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I3">
-        <v>563.70000000000005</v>
+        <v>228.2</v>
       </c>
       <c r="J3">
         <f>K3*SQRT(L3)</f>
-        <v>50.982349886995209</v>
+        <v>22.452171387195495</v>
       </c>
       <c r="K3">
-        <v>11.4</v>
+        <v>7.1</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>628.9</v>
+        <v>270.5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N12" si="0">O3/SQRT(P3)</f>
-        <v>3.395352861284314</v>
+        <f>O3/SQRT(P3)</f>
+        <v>1.2332882874656679</v>
       </c>
       <c r="O3">
-        <v>14.8</v>
+        <v>3.9</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="I4">
-        <v>24.411704</v>
+        <v>563.70000000000005</v>
       </c>
       <c r="J4">
         <f>K4*SQRT(L4)</f>
-        <v>1.53</v>
+        <v>50.982349886995209</v>
       </c>
       <c r="K4">
-        <v>0.51</v>
+        <v>11.4</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M4">
-        <v>40.756044000000003</v>
+        <v>628.9</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>1.3620283000000002</v>
+        <f>O4/SQRT(P4)</f>
+        <v>3.395352861284314</v>
       </c>
       <c r="O4">
-        <v>4.0860849000000004</v>
+        <v>14.8</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -17101,50 +17098,53 @@
         <v>33</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="I5">
-        <v>18.303000000000001</v>
+        <v>24.411704</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J7" si="1">K5*SQRT(L5)</f>
-        <v>1.7935509471436824</v>
+        <f>K5*SQRT(L5)</f>
+        <v>1.53</v>
       </c>
       <c r="K5">
-        <v>0.435</v>
+        <v>0.51</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>20.05</v>
+        <v>40.756044000000003</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.13058636988598771</v>
+        <f>O5/SQRT(P5)</f>
+        <v>1.3620283000000002</v>
       </c>
       <c r="O5">
-        <v>0.58399999999999996</v>
+        <v>4.0860849000000004</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -17153,53 +17153,53 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I6">
-        <v>35.1</v>
+        <v>18.303000000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>2.2400000000000002</v>
+        <f>K6*SQRT(L6)</f>
+        <v>1.7935509471436824</v>
       </c>
       <c r="K6">
-        <v>0.56000000000000005</v>
+        <v>0.435</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>37.299999999999997</v>
+        <v>20.05</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
+        <f>O6/SQRT(P6)</f>
+        <v>0.13058636988598771</v>
       </c>
       <c r="O6">
-        <v>0.68</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="P6">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -17210,210 +17210,215 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>119</v>
-      </c>
       <c r="I7">
-        <v>32.700000000000003</v>
+        <v>33.053435</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>3.32</v>
+        <f>K7*SQRT(L7)</f>
+        <v>1.6157259309001017</v>
       </c>
       <c r="K7">
-        <v>0.83</v>
+        <v>0.61068699999999998</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>36.200000000000003</v>
+        <v>37.633588000000003</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
+        <f>O7/SQRT(P7)</f>
+        <v>0.46163598025717184</v>
       </c>
       <c r="O7">
-        <v>0.7</v>
+        <v>1.221374</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
+      <c r="H8">
+        <v>77</v>
+      </c>
       <c r="I8">
-        <v>33.053435</v>
+        <v>231.7</v>
       </c>
       <c r="J8">
         <f>K8*SQRT(L8)</f>
-        <v>1.6157259309001017</v>
+        <v>42.932505167995963</v>
       </c>
       <c r="K8">
-        <v>0.61068699999999998</v>
+        <v>19.2</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>37.633588000000003</v>
+        <v>248.8</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.46163598025717184</v>
+        <f>O8/SQRT(P8)</f>
+        <v>3.8907582808496337</v>
       </c>
       <c r="O8">
-        <v>1.221374</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I9">
-        <v>30.1</v>
+        <v>24.9</v>
       </c>
       <c r="J9">
         <f>K9*SQRT(L9)</f>
-        <v>45.5</v>
+        <v>1.59</v>
       </c>
       <c r="K9">
-        <v>9.1</v>
+        <v>0.53</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>27.3</v>
+        <v>35.4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>1.48</v>
+        <f>0.97*SQRT(9)</f>
+        <v>2.91</v>
       </c>
       <c r="O9">
-        <v>7.4</v>
+        <f>2.9/SQRT(9)</f>
+        <v>0.96666666666666667</v>
       </c>
       <c r="P9">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
       </c>
       <c r="R9" t="s">
         <v>35</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
-        <v>84</v>
+        <f>12*7 + 20</f>
+        <v>104</v>
       </c>
       <c r="I10">
-        <v>27.99</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <f>K10*SQRT(L10)</f>
-        <v>0.82219219164377866</v>
+        <v>6.8585712797928977</v>
       </c>
       <c r="K10">
-        <v>0.26</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>32.36</v>
+        <v>55.6</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0.20238577025077628</v>
+        <f>4.2*SQRT(6)</f>
+        <v>10.287856919689348</v>
       </c>
       <c r="O10">
-        <v>0.64</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -17422,53 +17427,54 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <f>12*7 +22</f>
+        <v>106</v>
       </c>
       <c r="I11">
-        <v>231.7</v>
+        <v>240</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J15" si="2">K11*SQRT(L11)</f>
-        <v>42.932505167995963</v>
+        <v>34.1</v>
       </c>
       <c r="K11">
-        <v>19.2</v>
+        <f>34.1/SQRT(3)</f>
+        <v>19.687644179366242</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>248.8</v>
+        <v>251</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>3.8907582808496337</v>
+        <v>15.9</v>
       </c>
       <c r="O11">
-        <v>8.6999999999999993</v>
+        <f>15.9/SQRT(4)</f>
+        <v>7.95</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -17480,53 +17486,53 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>119</v>
       </c>
       <c r="I12">
-        <v>23.32</v>
+        <v>35.1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>1.1512601791080936</v>
+        <f>K12*SQRT(L12)</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K12">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>35.18</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0.46132056822416523</v>
+        <f>O12/SQRT(P12)</f>
+        <v>0.17</v>
       </c>
       <c r="O12">
-        <v>1.1299999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -17535,110 +17541,105 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>119</v>
       </c>
       <c r="I13">
-        <v>24.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>1.59</v>
+        <f>K13*SQRT(L13)</f>
+        <v>3.32</v>
       </c>
       <c r="K13">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>35.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="N13">
-        <f>0.97*SQRT(9)</f>
-        <v>2.91</v>
+        <f>O13/SQRT(P13)</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O13">
-        <f>2.9/SQRT(9)</f>
-        <v>0.96666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="P13">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="S13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <f>12*7 + 20</f>
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I14">
-        <v>35</v>
+        <v>27.99</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>6.8585712797928977</v>
+        <f>K14*SQRT(L14)</f>
+        <v>0.82219219164377866</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>0.26</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>55.6</v>
+        <v>32.36</v>
       </c>
       <c r="N14">
-        <f>4.2*SQRT(6)</f>
-        <v>10.287856919689348</v>
+        <f>O14/SQRT(P14)</f>
+        <v>0.20238577025077628</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>0.64</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
       </c>
       <c r="S14">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -17647,40 +17648,36 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="3">12*7 + 20</f>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I15">
-        <v>35</v>
+        <v>23.32</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>6.8585712797928977</v>
+        <f>K15*SQRT(L15)</f>
+        <v>1.1512601791080936</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>0.47</v>
       </c>
       <c r="L15">
         <v>6</v>
       </c>
       <c r="M15">
-        <v>41.8</v>
+        <v>35.18</v>
       </c>
       <c r="N15">
-        <f>3.7*SQRT(6)</f>
-        <v>9.063112048297759</v>
+        <f>O15/SQRT(P15)</f>
+        <v>0.46132056822416523</v>
       </c>
       <c r="O15">
-        <v>3.7</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P15">
         <v>6</v>
@@ -17689,63 +17686,66 @@
         <v>24</v>
       </c>
       <c r="S15">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
         <v>33</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="H16">
-        <f>12*7 +22</f>
-        <v>106</v>
+        <f>12*7 + 20</f>
+        <v>104</v>
       </c>
       <c r="I16">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="J16">
-        <v>34.1</v>
+        <f>K16*SQRT(L16)</f>
+        <v>6.8585712797928977</v>
       </c>
       <c r="K16">
-        <f>34.1/SQRT(3)</f>
-        <v>19.687644179366242</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>251</v>
+        <v>41.8</v>
       </c>
       <c r="N16">
-        <v>15.9</v>
+        <f>3.7*SQRT(6)</f>
+        <v>9.063112048297759</v>
       </c>
       <c r="O16">
-        <f>15.9/SQRT(4)</f>
-        <v>7.95</v>
+        <v>3.7</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="S16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -17803,6 +17803,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S17">
+    <sortCondition ref="C2:C17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Body_Weight.xlsx
+++ b/data/Body_Weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A613B2C-1B4C-4FD3-A517-B82CFD0DE142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B3B01-0D77-48BD-8C0B-0D079E44C2BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Body_Weight" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="357">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>Giraudo2010F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both </t>
   </si>
   <si>
     <t xml:space="preserve">Sample size estimated based on Table 2. Assuming that the ratio for Chow:HF was 93/144, we multiplied the N/generation by this ratio to obtain sample size. </t>
@@ -3439,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF147"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:I86"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="M122" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11488,7 +11485,7 @@
         <v>225</v>
       </c>
       <c r="M90" s="81" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="N90" s="81" t="s">
         <v>86</v>
@@ -11504,7 +11501,7 @@
         <v>0.18823529999999999</v>
       </c>
       <c r="R90" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S90" s="81">
         <v>27</v>
@@ -11524,7 +11521,7 @@
         <v>0.20814619792473499</v>
       </c>
       <c r="Y90" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z90" s="83">
         <v>50</v>
@@ -11534,16 +11531,16 @@
       </c>
       <c r="AB90" s="83"/>
       <c r="AC90" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD90" s="81" t="s">
         <v>262</v>
-      </c>
-      <c r="AD90" s="81" t="s">
-        <v>263</v>
       </c>
       <c r="AE90" s="81" t="s">
         <v>90</v>
       </c>
       <c r="AF90" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -11551,7 +11548,7 @@
         <v>42</v>
       </c>
       <c r="B91" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C91" s="85" t="s">
         <v>31</v>
@@ -11566,7 +11563,7 @@
         <v>33</v>
       </c>
       <c r="G91" s="81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H91" s="81" t="s">
         <v>20</v>
@@ -11598,7 +11595,7 @@
         <v>0.4235294</v>
       </c>
       <c r="R91" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S91" s="81">
         <v>24</v>
@@ -11618,7 +11615,7 @@
         <v>0.24283723091218901</v>
       </c>
       <c r="Y91" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z91" s="83">
         <v>50</v>
@@ -11628,10 +11625,10 @@
       </c>
       <c r="AB91" s="83"/>
       <c r="AC91" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD91" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE91" s="81" t="s">
         <v>90</v>
@@ -11672,7 +11669,7 @@
       </c>
       <c r="K92" s="83"/>
       <c r="L92" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M92" s="81" t="s">
         <v>46</v>
@@ -11691,7 +11688,7 @@
         <v>0.60301510000000003</v>
       </c>
       <c r="R92" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S92" s="87">
         <v>27</v>
@@ -11711,7 +11708,7 @@
         <v>0.60301510000000003</v>
       </c>
       <c r="Y92" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z92" s="83">
         <v>50</v>
@@ -11721,10 +11718,10 @@
       </c>
       <c r="AB92" s="83"/>
       <c r="AC92" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD92" s="81" t="s">
         <v>262</v>
-      </c>
-      <c r="AD92" s="81" t="s">
-        <v>263</v>
       </c>
       <c r="AE92" s="81" t="s">
         <v>90</v>
@@ -11736,7 +11733,7 @@
         <v>42</v>
       </c>
       <c r="B93" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C93" s="85" t="s">
         <v>31</v>
@@ -11751,7 +11748,7 @@
         <v>33</v>
       </c>
       <c r="G93" s="81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H93" s="81" t="s">
         <v>20</v>
@@ -11765,7 +11762,7 @@
       </c>
       <c r="K93" s="83"/>
       <c r="L93" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M93" s="81" t="s">
         <v>46</v>
@@ -11784,7 +11781,7 @@
         <v>0.30150749999999998</v>
       </c>
       <c r="R93" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S93" s="88">
         <v>24</v>
@@ -11804,7 +11801,7 @@
         <v>0.50251259999999998</v>
       </c>
       <c r="Y93" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z93" s="83">
         <v>50</v>
@@ -11814,10 +11811,10 @@
       </c>
       <c r="AB93" s="83"/>
       <c r="AC93" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD93" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE93" s="81" t="s">
         <v>90</v>
@@ -11826,10 +11823,10 @@
     </row>
     <row r="94" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B94" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C94" s="89" t="s">
         <v>31</v>
@@ -11857,7 +11854,7 @@
       </c>
       <c r="K94" s="89"/>
       <c r="L94" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M94" s="89" t="s">
         <v>23</v>
@@ -11876,7 +11873,7 @@
         <v>0.18</v>
       </c>
       <c r="R94" s="89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S94" s="89">
         <v>5</v>
@@ -11896,7 +11893,7 @@
         <v>0.77</v>
       </c>
       <c r="Y94" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z94" s="89">
         <v>5</v>
@@ -11909,21 +11906,21 @@
         <v>24</v>
       </c>
       <c r="AD94" s="89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE94" s="89" t="s">
         <v>90</v>
       </c>
       <c r="AF94" s="89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="92" t="s">
         <v>275</v>
-      </c>
-      <c r="B95" s="92" t="s">
-        <v>276</v>
       </c>
       <c r="C95" s="56" t="s">
         <v>31</v>
@@ -11938,7 +11935,7 @@
         <v>33</v>
       </c>
       <c r="G95" s="56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H95" s="56" t="s">
         <v>40</v>
@@ -11951,7 +11948,7 @@
         <v>140</v>
       </c>
       <c r="K95" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L95" s="56"/>
       <c r="M95" s="56" t="s">
@@ -11996,17 +11993,17 @@
       <c r="AB95" s="56"/>
       <c r="AC95" s="56"/>
       <c r="AD95" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE95" s="56"/>
       <c r="AF95" s="56"/>
     </row>
     <row r="96" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B96" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" s="56" t="s">
         <v>31</v>
@@ -12021,7 +12018,7 @@
         <v>33</v>
       </c>
       <c r="G96" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H96" s="56" t="s">
         <v>40</v>
@@ -12033,7 +12030,7 @@
         <v>140</v>
       </c>
       <c r="K96" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L96" s="56"/>
       <c r="M96" s="56" t="s">
@@ -12078,17 +12075,17 @@
       <c r="AB96" s="56"/>
       <c r="AC96" s="56"/>
       <c r="AD96" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE96" s="56"/>
       <c r="AF96" s="56"/>
     </row>
     <row r="97" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="92" t="s">
         <v>275</v>
-      </c>
-      <c r="B97" s="92" t="s">
-        <v>276</v>
       </c>
       <c r="C97" s="56" t="s">
         <v>31</v>
@@ -12103,7 +12100,7 @@
         <v>33</v>
       </c>
       <c r="G97" s="56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H97" s="56" t="s">
         <v>40</v>
@@ -12116,7 +12113,7 @@
         <v>35</v>
       </c>
       <c r="K97" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L97" s="56"/>
       <c r="M97" s="56" t="s">
@@ -12161,17 +12158,17 @@
       <c r="AB97" s="56"/>
       <c r="AC97" s="56"/>
       <c r="AD97" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE97" s="56"/>
       <c r="AF97" s="56"/>
     </row>
     <row r="98" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B98" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98" s="56" t="s">
         <v>31</v>
@@ -12186,7 +12183,7 @@
         <v>33</v>
       </c>
       <c r="G98" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H98" s="56" t="s">
         <v>40</v>
@@ -12198,7 +12195,7 @@
         <v>35</v>
       </c>
       <c r="K98" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L98" s="56"/>
       <c r="M98" s="56" t="s">
@@ -12243,17 +12240,17 @@
       <c r="AB98" s="56"/>
       <c r="AC98" s="56"/>
       <c r="AD98" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE98" s="56"/>
       <c r="AF98" s="56"/>
     </row>
     <row r="99" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>21</v>
@@ -12281,7 +12278,7 @@
         <v>196</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="9" t="s">
@@ -12301,7 +12298,7 @@
         <v>40.1</v>
       </c>
       <c r="R99" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S99" s="9">
         <v>9</v>
@@ -12321,7 +12318,7 @@
         <v>37.4</v>
       </c>
       <c r="Y99" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z99" s="9">
         <v>9</v>
@@ -12334,21 +12331,21 @@
         <v>52</v>
       </c>
       <c r="AD99" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE99" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AF99" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>21</v>
@@ -12376,7 +12373,7 @@
         <v>196</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="9" t="s">
@@ -12396,7 +12393,7 @@
         <v>16.3</v>
       </c>
       <c r="R100" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S100" s="9">
         <v>9</v>
@@ -12416,7 +12413,7 @@
         <v>15</v>
       </c>
       <c r="Y100" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z100" s="9">
         <v>9</v>
@@ -12429,21 +12426,21 @@
         <v>52</v>
       </c>
       <c r="AD100" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE100" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AF100" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>21</v>
@@ -12489,7 +12486,7 @@
         <v>45.7</v>
       </c>
       <c r="R101" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S101" s="9">
         <v>9</v>
@@ -12509,7 +12506,7 @@
         <v>29.9</v>
       </c>
       <c r="Y101" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z101" s="9">
         <v>9</v>
@@ -12522,21 +12519,21 @@
         <v>52</v>
       </c>
       <c r="AD101" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE101" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AF101" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>21</v>
@@ -12581,7 +12578,7 @@
         <v>12.3</v>
       </c>
       <c r="R102" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S102" s="9">
         <v>9</v>
@@ -12601,7 +12598,7 @@
         <v>17.8</v>
       </c>
       <c r="Y102" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z102" s="9">
         <v>9</v>
@@ -12614,13 +12611,13 @@
         <v>52</v>
       </c>
       <c r="AD102" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE102" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AF102" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -12699,10 +12696,10 @@
       </c>
       <c r="AB103" s="38"/>
       <c r="AC103" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD103" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="AD103" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="AE103" s="38" t="s">
         <v>90</v>
@@ -12785,10 +12782,10 @@
       </c>
       <c r="AB104" s="38"/>
       <c r="AC104" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD104" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="AD104" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="AE104" s="38" t="s">
         <v>90</v>
@@ -12872,10 +12869,10 @@
       </c>
       <c r="AB105" s="38"/>
       <c r="AC105" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD105" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="AD105" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="AE105" s="38" t="s">
         <v>90</v>
@@ -12884,10 +12881,10 @@
     </row>
     <row r="106" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" s="45" t="s">
         <v>290</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>291</v>
       </c>
       <c r="C106" s="102" t="s">
         <v>21</v>
@@ -12962,21 +12959,21 @@
         <v>88</v>
       </c>
       <c r="AD106" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE106" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AF106" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" s="102" t="s">
         <v>21</v>
@@ -12991,7 +12988,7 @@
         <v>33</v>
       </c>
       <c r="G107" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H107" s="45" t="s">
         <v>40</v>
@@ -13051,21 +13048,21 @@
         <v>88</v>
       </c>
       <c r="AD107" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE107" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AF107" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C108" s="102" t="s">
         <v>21</v>
@@ -13140,21 +13137,21 @@
         <v>88</v>
       </c>
       <c r="AD108" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE108" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AF108" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:32" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C109" s="102" t="s">
         <v>21</v>
@@ -13229,21 +13226,21 @@
         <v>88</v>
       </c>
       <c r="AD109" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE109" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AF109" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="45" t="s">
         <v>290</v>
-      </c>
-      <c r="B110" s="45" t="s">
-        <v>291</v>
       </c>
       <c r="C110" s="102" t="s">
         <v>21</v>
@@ -13315,7 +13312,7 @@
         <v>88</v>
       </c>
       <c r="AD110" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE110" s="45" t="s">
         <v>90</v>
@@ -13324,10 +13321,10 @@
     </row>
     <row r="111" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C111" s="102" t="s">
         <v>21</v>
@@ -13342,7 +13339,7 @@
         <v>33</v>
       </c>
       <c r="G111" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H111" s="45" t="s">
         <v>40</v>
@@ -13399,7 +13396,7 @@
         <v>88</v>
       </c>
       <c r="AD111" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE111" s="45" t="s">
         <v>90</v>
@@ -13408,10 +13405,10 @@
     </row>
     <row r="112" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C112" s="102" t="s">
         <v>21</v>
@@ -13483,7 +13480,7 @@
         <v>88</v>
       </c>
       <c r="AD112" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE112" s="45" t="s">
         <v>90</v>
@@ -13492,10 +13489,10 @@
     </row>
     <row r="113" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C113" s="102" t="s">
         <v>21</v>
@@ -13567,7 +13564,7 @@
         <v>88</v>
       </c>
       <c r="AD113" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE113" s="45" t="s">
         <v>90</v>
@@ -13576,10 +13573,10 @@
     </row>
     <row r="114" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114" s="45" t="s">
         <v>290</v>
-      </c>
-      <c r="B114" s="45" t="s">
-        <v>291</v>
       </c>
       <c r="C114" s="102" t="s">
         <v>21</v>
@@ -13651,7 +13648,7 @@
         <v>88</v>
       </c>
       <c r="AD114" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE114" s="45" t="s">
         <v>90</v>
@@ -13660,10 +13657,10 @@
     </row>
     <row r="115" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C115" s="102" t="s">
         <v>21</v>
@@ -13678,7 +13675,7 @@
         <v>33</v>
       </c>
       <c r="G115" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H115" s="45" t="s">
         <v>40</v>
@@ -13735,7 +13732,7 @@
         <v>88</v>
       </c>
       <c r="AD115" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE115" s="45" t="s">
         <v>90</v>
@@ -13744,10 +13741,10 @@
     </row>
     <row r="116" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C116" s="102" t="s">
         <v>21</v>
@@ -13819,7 +13816,7 @@
         <v>88</v>
       </c>
       <c r="AD116" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE116" s="45" t="s">
         <v>90</v>
@@ -13828,10 +13825,10 @@
     </row>
     <row r="117" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C117" s="102" t="s">
         <v>21</v>
@@ -13903,7 +13900,7 @@
         <v>88</v>
       </c>
       <c r="AD117" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE117" s="45" t="s">
         <v>90</v>
@@ -13912,10 +13909,10 @@
     </row>
     <row r="118" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="45" t="s">
         <v>290</v>
-      </c>
-      <c r="B118" s="45" t="s">
-        <v>291</v>
       </c>
       <c r="C118" s="102" t="s">
         <v>21</v>
@@ -13988,7 +13985,7 @@
         <v>88</v>
       </c>
       <c r="AD118" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE118" s="45" t="s">
         <v>90</v>
@@ -13997,10 +13994,10 @@
     </row>
     <row r="119" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C119" s="102" t="s">
         <v>21</v>
@@ -14015,7 +14012,7 @@
         <v>33</v>
       </c>
       <c r="G119" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H119" s="45" t="s">
         <v>40</v>
@@ -14072,7 +14069,7 @@
         <v>88</v>
       </c>
       <c r="AD119" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE119" s="45" t="s">
         <v>90</v>
@@ -14081,10 +14078,10 @@
     </row>
     <row r="120" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C120" s="102" t="s">
         <v>21</v>
@@ -14156,7 +14153,7 @@
         <v>88</v>
       </c>
       <c r="AD120" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE120" s="45" t="s">
         <v>90</v>
@@ -14165,10 +14162,10 @@
     </row>
     <row r="121" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C121" s="102" t="s">
         <v>21</v>
@@ -14240,7 +14237,7 @@
         <v>88</v>
       </c>
       <c r="AD121" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE121" s="45" t="s">
         <v>90</v>
@@ -14252,7 +14249,7 @@
         <v>25</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C122" s="55" t="s">
         <v>21</v>
@@ -14282,7 +14279,7 @@
         <v>103</v>
       </c>
       <c r="L122" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M122" s="55" t="s">
         <v>33</v>
@@ -14301,7 +14298,7 @@
         <v>8.6</v>
       </c>
       <c r="R122" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S122" s="55">
         <v>11</v>
@@ -14321,7 +14318,7 @@
         <v>9.5</v>
       </c>
       <c r="Y122" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z122" s="107">
         <v>11</v>
@@ -14331,16 +14328,16 @@
       </c>
       <c r="AB122" s="55"/>
       <c r="AC122" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD122" s="55" t="s">
         <v>301</v>
-      </c>
-      <c r="AD122" s="55" t="s">
-        <v>302</v>
       </c>
       <c r="AE122" s="55" t="s">
         <v>90</v>
       </c>
       <c r="AF122" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -14348,7 +14345,7 @@
         <v>25</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C123" s="55" t="s">
         <v>21</v>
@@ -14378,7 +14375,7 @@
         <v>103</v>
       </c>
       <c r="L123" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M123" s="55" t="s">
         <v>33</v>
@@ -14397,7 +14394,7 @@
         <v>8.6</v>
       </c>
       <c r="R123" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S123" s="55">
         <v>11</v>
@@ -14417,7 +14414,7 @@
         <v>9.4</v>
       </c>
       <c r="Y123" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z123" s="107">
         <v>11</v>
@@ -14427,10 +14424,10 @@
       </c>
       <c r="AB123" s="55"/>
       <c r="AC123" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD123" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE123" s="55" t="s">
         <v>90</v>
@@ -14442,7 +14439,7 @@
         <v>25</v>
       </c>
       <c r="B124" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C124" s="55" t="s">
         <v>21</v>
@@ -14457,7 +14454,7 @@
         <v>23</v>
       </c>
       <c r="G124" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H124" s="55" t="s">
         <v>20</v>
@@ -14472,7 +14469,7 @@
         <v>103</v>
       </c>
       <c r="L124" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M124" s="55" t="s">
         <v>23</v>
@@ -14491,7 +14488,7 @@
         <v>13.4</v>
       </c>
       <c r="R124" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S124" s="55">
         <v>21</v>
@@ -14511,7 +14508,7 @@
         <v>14.1</v>
       </c>
       <c r="Y124" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z124" s="55">
         <v>21</v>
@@ -14521,10 +14518,10 @@
       </c>
       <c r="AB124" s="55"/>
       <c r="AC124" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD124" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE124" s="55" t="s">
         <v>90</v>
@@ -14536,7 +14533,7 @@
         <v>25</v>
       </c>
       <c r="B125" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C125" s="55" t="s">
         <v>21</v>
@@ -14566,7 +14563,7 @@
         <v>103</v>
       </c>
       <c r="L125" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M125" s="55" t="s">
         <v>23</v>
@@ -14585,7 +14582,7 @@
         <v>13.4</v>
       </c>
       <c r="R125" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S125" s="55">
         <v>21</v>
@@ -14605,7 +14602,7 @@
         <v>13</v>
       </c>
       <c r="Y125" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z125" s="55">
         <v>21</v>
@@ -14615,10 +14612,10 @@
       </c>
       <c r="AB125" s="55"/>
       <c r="AC125" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD125" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE125" s="55" t="s">
         <v>90</v>
@@ -14630,7 +14627,7 @@
         <v>25</v>
       </c>
       <c r="B126" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C126" s="55" t="s">
         <v>21</v>
@@ -14661,7 +14658,7 @@
         <v>103</v>
       </c>
       <c r="L126" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M126" s="55" t="s">
         <v>33</v>
@@ -14679,7 +14676,7 @@
         <v>4.5</v>
       </c>
       <c r="R126" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S126" s="55">
         <v>11</v>
@@ -14698,7 +14695,7 @@
         <v>6.75</v>
       </c>
       <c r="Y126" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z126" s="107">
         <v>11</v>
@@ -14708,16 +14705,16 @@
       </c>
       <c r="AB126" s="55"/>
       <c r="AC126" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD126" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE126" s="55" t="s">
         <v>90</v>
       </c>
       <c r="AF126" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -14725,7 +14722,7 @@
         <v>25</v>
       </c>
       <c r="B127" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127" s="55" t="s">
         <v>21</v>
@@ -14756,7 +14753,7 @@
         <v>103</v>
       </c>
       <c r="L127" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M127" s="55" t="s">
         <v>33</v>
@@ -14774,7 +14771,7 @@
         <v>4.5</v>
       </c>
       <c r="R127" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S127" s="55">
         <v>11</v>
@@ -14793,7 +14790,7 @@
         <v>5.0625</v>
       </c>
       <c r="Y127" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z127" s="107">
         <v>11</v>
@@ -14803,10 +14800,10 @@
       </c>
       <c r="AB127" s="55"/>
       <c r="AC127" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD127" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE127" s="55" t="s">
         <v>90</v>
@@ -14815,10 +14812,10 @@
     </row>
     <row r="128" spans="1:32" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="B128" s="56" t="s">
         <v>313</v>
-      </c>
-      <c r="B128" s="56" t="s">
-        <v>314</v>
       </c>
       <c r="C128" s="56" t="s">
         <v>21</v>
@@ -14892,7 +14889,7 @@
         <v>52</v>
       </c>
       <c r="AD128" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE128" s="56" t="s">
         <v>90</v>
@@ -14901,10 +14898,10 @@
     </row>
     <row r="129" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="B129" s="111" t="s">
         <v>316</v>
-      </c>
-      <c r="B129" s="111" t="s">
-        <v>317</v>
       </c>
       <c r="C129" s="111" t="s">
         <v>21</v>
@@ -14951,7 +14948,7 @@
         <v>0.22178987999999999</v>
       </c>
       <c r="R129" s="111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S129" s="111">
         <f>8*8/2</f>
@@ -14972,7 +14969,7 @@
         <v>7.5875490000000004E-2</v>
       </c>
       <c r="Y129" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z129" s="57">
         <f>6*8/2</f>
@@ -14983,24 +14980,24 @@
       </c>
       <c r="AB129" s="57"/>
       <c r="AC129" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD129" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD129" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE129" s="111" t="s">
         <v>90</v>
       </c>
       <c r="AF129" s="111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:32" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B130" s="111" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C130" s="111" t="s">
         <v>21</v>
@@ -15047,7 +15044,7 @@
         <v>5.2529180000000002E-2</v>
       </c>
       <c r="R130" s="111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S130" s="111">
         <f>9*8/2</f>
@@ -15068,7 +15065,7 @@
         <v>6.4202330000000002E-2</v>
       </c>
       <c r="Y130" s="111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z130" s="57">
         <f>10*8/2</f>
@@ -15079,10 +15076,10 @@
       </c>
       <c r="AB130" s="57"/>
       <c r="AC130" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD130" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE130" s="111" t="s">
         <v>90</v>
@@ -15091,10 +15088,10 @@
     </row>
     <row r="131" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B131" s="111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" s="111" t="s">
         <v>21</v>
@@ -15141,7 +15138,7 @@
         <v>0.18093385000000001</v>
       </c>
       <c r="R131" s="111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S131" s="115">
         <v>32</v>
@@ -15161,7 +15158,7 @@
         <v>9.9221790000000004E-2</v>
       </c>
       <c r="Y131" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z131" s="57">
         <v>24</v>
@@ -15171,10 +15168,10 @@
       </c>
       <c r="AB131" s="57"/>
       <c r="AC131" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD131" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD131" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE131" s="111" t="s">
         <v>90</v>
@@ -15183,10 +15180,10 @@
     </row>
     <row r="132" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B132" s="111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C132" s="111" t="s">
         <v>21</v>
@@ -15233,7 +15230,7 @@
         <v>8.7548639999999997E-2</v>
       </c>
       <c r="R132" s="111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S132" s="111">
         <v>36</v>
@@ -15253,7 +15250,7 @@
         <v>0.10505837</v>
       </c>
       <c r="Y132" s="57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z132" s="57">
         <v>40</v>
@@ -15263,10 +15260,10 @@
       </c>
       <c r="AB132" s="57"/>
       <c r="AC132" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD132" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE132" s="111" t="s">
         <v>90</v>
@@ -15275,10 +15272,10 @@
     </row>
     <row r="133" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="111" t="s">
         <v>316</v>
-      </c>
-      <c r="B133" s="111" t="s">
-        <v>317</v>
       </c>
       <c r="C133" s="111" t="s">
         <v>21</v>
@@ -15306,7 +15303,7 @@
       </c>
       <c r="K133" s="111"/>
       <c r="L133" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M133" s="111" t="s">
         <v>23</v>
@@ -15325,7 +15322,7 @@
         <v>2.5531914900000001</v>
       </c>
       <c r="R133" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S133" s="111">
         <v>12</v>
@@ -15345,7 +15342,7 @@
         <v>4.6808510600000002</v>
       </c>
       <c r="Y133" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z133" s="111">
         <v>8</v>
@@ -15355,10 +15352,10 @@
       </c>
       <c r="AB133" s="57"/>
       <c r="AC133" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD133" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD133" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE133" s="111" t="s">
         <v>90</v>
@@ -15367,10 +15364,10 @@
     </row>
     <row r="134" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B134" s="111" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C134" s="111" t="s">
         <v>21</v>
@@ -15398,7 +15395,7 @@
       </c>
       <c r="K134" s="111"/>
       <c r="L134" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M134" s="111" t="s">
         <v>23</v>
@@ -15417,7 +15414,7 @@
         <v>1.4893616999999999</v>
       </c>
       <c r="R134" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S134" s="111">
         <v>22</v>
@@ -15437,7 +15434,7 @@
         <v>2.1276595700000001</v>
       </c>
       <c r="Y134" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z134" s="115">
         <v>10</v>
@@ -15447,10 +15444,10 @@
       </c>
       <c r="AB134" s="57"/>
       <c r="AC134" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD134" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE134" s="111" t="s">
         <v>90</v>
@@ -15459,10 +15456,10 @@
     </row>
     <row r="135" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C135" s="111" t="s">
         <v>21</v>
@@ -15490,7 +15487,7 @@
       </c>
       <c r="K135" s="111"/>
       <c r="L135" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M135" s="111" t="s">
         <v>33</v>
@@ -15509,7 +15506,7 @@
         <v>1.4893616999999999</v>
       </c>
       <c r="R135" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S135" s="115">
         <v>20</v>
@@ -15529,7 +15526,7 @@
         <v>4.6808510600000002</v>
       </c>
       <c r="Y135" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z135" s="115">
         <v>12</v>
@@ -15539,10 +15536,10 @@
       </c>
       <c r="AB135" s="57"/>
       <c r="AC135" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD135" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD135" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE135" s="111" t="s">
         <v>90</v>
@@ -15551,10 +15548,10 @@
     </row>
     <row r="136" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B136" s="111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C136" s="111" t="s">
         <v>21</v>
@@ -15582,7 +15579,7 @@
       </c>
       <c r="K136" s="111"/>
       <c r="L136" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M136" s="111" t="s">
         <v>33</v>
@@ -15601,7 +15598,7 @@
         <v>1.7021276599999999</v>
       </c>
       <c r="R136" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S136" s="111">
         <v>24</v>
@@ -15621,7 +15618,7 @@
         <v>2.5531914900000001</v>
       </c>
       <c r="Y136" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z136" s="115">
         <v>26</v>
@@ -15631,10 +15628,10 @@
       </c>
       <c r="AB136" s="57"/>
       <c r="AC136" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD136" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE136" s="111" t="s">
         <v>90</v>
@@ -15643,10 +15640,10 @@
     </row>
     <row r="137" spans="1:32" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="B137" s="111" t="s">
         <v>316</v>
-      </c>
-      <c r="B137" s="111" t="s">
-        <v>317</v>
       </c>
       <c r="C137" s="111" t="s">
         <v>21</v>
@@ -15674,7 +15671,7 @@
       </c>
       <c r="K137" s="111"/>
       <c r="L137" s="111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M137" s="111" t="s">
         <v>23</v>
@@ -15693,7 +15690,7 @@
         <v>17.1875</v>
       </c>
       <c r="R137" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S137" s="111">
         <v>12</v>
@@ -15713,7 +15710,7 @@
         <v>30.46875</v>
       </c>
       <c r="Y137" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z137" s="115">
         <v>8</v>
@@ -15723,10 +15720,10 @@
       </c>
       <c r="AB137" s="57"/>
       <c r="AC137" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD137" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD137" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE137" s="111" t="s">
         <v>90</v>
@@ -15735,10 +15732,10 @@
     </row>
     <row r="138" spans="1:32" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B138" s="111" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C138" s="111" t="s">
         <v>21</v>
@@ -15766,7 +15763,7 @@
       </c>
       <c r="K138" s="111"/>
       <c r="L138" s="111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M138" s="111" t="s">
         <v>23</v>
@@ -15785,7 +15782,7 @@
         <v>7.8125</v>
       </c>
       <c r="R138" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S138" s="111">
         <v>22</v>
@@ -15805,7 +15802,7 @@
         <v>14.84375</v>
       </c>
       <c r="Y138" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z138" s="115">
         <v>10</v>
@@ -15815,10 +15812,10 @@
       </c>
       <c r="AB138" s="57"/>
       <c r="AC138" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD138" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE138" s="111" t="s">
         <v>90</v>
@@ -15827,10 +15824,10 @@
     </row>
     <row r="139" spans="1:32" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" s="111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C139" s="111" t="s">
         <v>21</v>
@@ -15858,7 +15855,7 @@
       </c>
       <c r="K139" s="111"/>
       <c r="L139" s="111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M139" s="111" t="s">
         <v>33</v>
@@ -15877,7 +15874,7 @@
         <v>10.15625</v>
       </c>
       <c r="R139" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S139" s="111">
         <v>20</v>
@@ -15897,7 +15894,7 @@
         <v>26.5625</v>
       </c>
       <c r="Y139" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z139" s="115">
         <v>12</v>
@@ -15907,10 +15904,10 @@
       </c>
       <c r="AB139" s="57"/>
       <c r="AC139" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD139" s="111" t="s">
         <v>320</v>
-      </c>
-      <c r="AD139" s="111" t="s">
-        <v>321</v>
       </c>
       <c r="AE139" s="111" t="s">
         <v>90</v>
@@ -15919,10 +15916,10 @@
     </row>
     <row r="140" spans="1:32" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" s="111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C140" s="111" t="s">
         <v>21</v>
@@ -15950,7 +15947,7 @@
       </c>
       <c r="K140" s="111"/>
       <c r="L140" s="111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M140" s="111" t="s">
         <v>33</v>
@@ -15969,7 +15966,7 @@
         <v>12.5</v>
       </c>
       <c r="R140" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S140" s="111">
         <v>24</v>
@@ -15989,7 +15986,7 @@
         <v>17.96875</v>
       </c>
       <c r="Y140" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z140" s="115">
         <v>26</v>
@@ -15999,10 +15996,10 @@
       </c>
       <c r="AB140" s="57"/>
       <c r="AC140" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD140" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE140" s="111" t="s">
         <v>90</v>
@@ -16011,10 +16008,10 @@
     </row>
     <row r="141" spans="1:32" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C141" s="116" t="s">
         <v>21</v>
@@ -16041,10 +16038,10 @@
         <v>0</v>
       </c>
       <c r="L141" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M141" s="116" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="N141" s="116" t="s">
         <v>86</v>
@@ -16081,16 +16078,16 @@
         <v>87</v>
       </c>
       <c r="AC141" s="116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD141" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE141" s="116" t="s">
         <v>90</v>
       </c>
       <c r="AF141" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:32" s="119" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16167,7 +16164,7 @@
         <v>24</v>
       </c>
       <c r="AD142" s="119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AE142" s="119" t="s">
         <v>90</v>
@@ -16175,13 +16172,13 @@
     </row>
     <row r="143" spans="1:32" s="56" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="B143" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="C143" s="39" t="s">
         <v>340</v>
-      </c>
-      <c r="C143" s="39" t="s">
-        <v>341</v>
       </c>
       <c r="D143" s="39" t="s">
         <v>27</v>
@@ -16205,7 +16202,7 @@
         <v>2</v>
       </c>
       <c r="K143" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L143" s="39"/>
       <c r="M143" s="39" t="s">
@@ -16224,7 +16221,7 @@
         <v>0.72727269999999999</v>
       </c>
       <c r="R143" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S143" s="125">
         <v>12</v>
@@ -16243,7 +16240,7 @@
         <v>1.5757576</v>
       </c>
       <c r="Y143" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z143" s="125">
         <v>5</v>
@@ -16253,27 +16250,27 @@
       </c>
       <c r="AB143" s="39"/>
       <c r="AC143" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD143" s="39" t="s">
         <v>344</v>
-      </c>
-      <c r="AD143" s="39" t="s">
-        <v>345</v>
       </c>
       <c r="AE143" s="39" t="s">
         <v>90</v>
       </c>
       <c r="AF143" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:32" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C144" s="126" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D144" s="126" t="s">
         <v>27</v>
@@ -16297,7 +16294,7 @@
         <v>2</v>
       </c>
       <c r="K144" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L144" s="39"/>
       <c r="M144" s="39" t="s">
@@ -16316,7 +16313,7 @@
         <v>1.0909091</v>
       </c>
       <c r="R144" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S144" s="125">
         <v>8</v>
@@ -16335,7 +16332,7 @@
         <v>1.0909091</v>
       </c>
       <c r="Y144" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z144" s="125">
         <v>10</v>
@@ -16345,27 +16342,27 @@
       </c>
       <c r="AB144" s="39"/>
       <c r="AC144" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AD144" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE144" s="39" t="s">
         <v>90</v>
       </c>
       <c r="AF144" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:32" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B145" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C145" s="126" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D145" s="126" t="s">
         <v>27</v>
@@ -16389,7 +16386,7 @@
         <v>2</v>
       </c>
       <c r="K145" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L145" s="39"/>
       <c r="M145" s="39" t="s">
@@ -16408,7 +16405,7 @@
         <v>0.36363640000000003</v>
       </c>
       <c r="R145" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S145" s="125">
         <v>12</v>
@@ -16427,7 +16424,7 @@
         <v>1.5757576</v>
       </c>
       <c r="Y145" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z145" s="125">
         <v>5</v>
@@ -16437,27 +16434,27 @@
       </c>
       <c r="AB145" s="39"/>
       <c r="AC145" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD145" s="39" t="s">
         <v>344</v>
-      </c>
-      <c r="AD145" s="39" t="s">
-        <v>345</v>
       </c>
       <c r="AE145" s="39" t="s">
         <v>90</v>
       </c>
       <c r="AF145" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:32" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C146" s="126" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D146" s="126" t="s">
         <v>27</v>
@@ -16481,7 +16478,7 @@
         <v>2</v>
       </c>
       <c r="K146" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L146" s="39"/>
       <c r="M146" s="39" t="s">
@@ -16500,7 +16497,7 @@
         <v>0.72727269999999999</v>
       </c>
       <c r="R146" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S146" s="125">
         <v>8</v>
@@ -16519,7 +16516,7 @@
         <v>0.84848480000000004</v>
       </c>
       <c r="Y146" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z146" s="125">
         <v>10</v>
@@ -16529,27 +16526,27 @@
       </c>
       <c r="AB146" s="39"/>
       <c r="AC146" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AD146" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE146" s="39" t="s">
         <v>90</v>
       </c>
       <c r="AF146" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B147" s="56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C147" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D147" s="56" t="s">
         <v>27</v>
@@ -16620,7 +16617,7 @@
         <v>52</v>
       </c>
       <c r="AD147" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE147" s="56" t="s">
         <v>90</v>
@@ -16834,7 +16831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16910,7 +16907,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -16939,7 +16936,7 @@
         <v>30.1</v>
       </c>
       <c r="J2">
-        <f>K2*SQRT(L2)</f>
+        <f t="shared" ref="J2:J10" si="0">K2*SQRT(L2)</f>
         <v>45.5</v>
       </c>
       <c r="K2">
@@ -16952,7 +16949,7 @@
         <v>27.3</v>
       </c>
       <c r="N2">
-        <f>O2/SQRT(P2)</f>
+        <f t="shared" ref="N2:N8" si="1">O2/SQRT(P2)</f>
         <v>1.48</v>
       </c>
       <c r="O2">
@@ -16994,7 +16991,7 @@
         <v>228.2</v>
       </c>
       <c r="J3">
-        <f>K3*SQRT(L3)</f>
+        <f t="shared" si="0"/>
         <v>22.452171387195495</v>
       </c>
       <c r="K3">
@@ -17007,7 +17004,7 @@
         <v>270.5</v>
       </c>
       <c r="N3">
-        <f>O3/SQRT(P3)</f>
+        <f t="shared" si="1"/>
         <v>1.2332882874656679</v>
       </c>
       <c r="O3">
@@ -17049,7 +17046,7 @@
         <v>563.70000000000005</v>
       </c>
       <c r="J4">
-        <f>K4*SQRT(L4)</f>
+        <f t="shared" si="0"/>
         <v>50.982349886995209</v>
       </c>
       <c r="K4">
@@ -17062,7 +17059,7 @@
         <v>628.9</v>
       </c>
       <c r="N4">
-        <f>O4/SQRT(P4)</f>
+        <f t="shared" si="1"/>
         <v>3.395352861284314</v>
       </c>
       <c r="O4">
@@ -17104,7 +17101,7 @@
         <v>24.411704</v>
       </c>
       <c r="J5">
-        <f>K5*SQRT(L5)</f>
+        <f t="shared" si="0"/>
         <v>1.53</v>
       </c>
       <c r="K5">
@@ -17117,7 +17114,7 @@
         <v>40.756044000000003</v>
       </c>
       <c r="N5">
-        <f>O5/SQRT(P5)</f>
+        <f t="shared" si="1"/>
         <v>1.3620283000000002</v>
       </c>
       <c r="O5">
@@ -17162,7 +17159,7 @@
         <v>18.303000000000001</v>
       </c>
       <c r="J6">
-        <f>K6*SQRT(L6)</f>
+        <f t="shared" si="0"/>
         <v>1.7935509471436824</v>
       </c>
       <c r="K6">
@@ -17175,7 +17172,7 @@
         <v>20.05</v>
       </c>
       <c r="N6">
-        <f>O6/SQRT(P6)</f>
+        <f t="shared" si="1"/>
         <v>0.13058636988598771</v>
       </c>
       <c r="O6">
@@ -17214,7 +17211,7 @@
         <v>33.053435</v>
       </c>
       <c r="J7">
-        <f>K7*SQRT(L7)</f>
+        <f t="shared" si="0"/>
         <v>1.6157259309001017</v>
       </c>
       <c r="K7">
@@ -17227,7 +17224,7 @@
         <v>37.633588000000003</v>
       </c>
       <c r="N7">
-        <f>O7/SQRT(P7)</f>
+        <f t="shared" si="1"/>
         <v>0.46163598025717184</v>
       </c>
       <c r="O7">
@@ -17269,7 +17266,7 @@
         <v>231.7</v>
       </c>
       <c r="J8">
-        <f>K8*SQRT(L8)</f>
+        <f t="shared" si="0"/>
         <v>42.932505167995963</v>
       </c>
       <c r="K8">
@@ -17282,7 +17279,7 @@
         <v>248.8</v>
       </c>
       <c r="N8">
-        <f>O8/SQRT(P8)</f>
+        <f t="shared" si="1"/>
         <v>3.8907582808496337</v>
       </c>
       <c r="O8">
@@ -17321,7 +17318,7 @@
         <v>24.9</v>
       </c>
       <c r="J9">
-        <f>K9*SQRT(L9)</f>
+        <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
       <c r="K9">
@@ -17359,7 +17356,7 @@
         <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -17384,7 +17381,7 @@
         <v>35</v>
       </c>
       <c r="J10">
-        <f>K10*SQRT(L10)</f>
+        <f t="shared" si="0"/>
         <v>6.8585712797928977</v>
       </c>
       <c r="K10">
@@ -17415,10 +17412,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -17463,7 +17460,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S11">
         <v>15</v>
@@ -17639,7 +17636,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -17694,7 +17691,7 @@
         <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -17753,7 +17750,7 @@
         <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
